--- a/documents/Published/Venn Diagram/VennDiagramByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Venn Diagram/VennDiagramByMAQSoftwareChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Power BI\VennDiagram\14-9-17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Venn Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A6011-0EA9-43D0-98F0-429CBD218F90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{87AE606C-9C12-4DEC-BB2E-96051D58853D}"/>
   </bookViews>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>S no</t>
   </si>
@@ -279,6 +280,22 @@
   </si>
   <si>
     <t>iPad - yes</t>
+  </si>
+  <si>
+    <t>Opacity</t>
+  </si>
+  <si>
+    <t>Update Oparcity</t>
+  </si>
+  <si>
+    <t>1. Go to formatting pane
+2. Go to Opacity option
+3. Update 'External arcs' to '90'
+4. Update 'Internal arcs' to '25'</t>
+  </si>
+  <si>
+    <t>1. Opacity of External arcs will be set to '90%'
+2. Opacity of Internal arcs will be set to '25%'</t>
   </si>
 </sst>
 </file>
@@ -379,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -421,6 +438,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD02BEF-CDC7-45AE-AEC8-BFE8DA79D8E7}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +872,23 @@
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
